--- a/02_Power_Query_Practice/01_practice.xlsx
+++ b/02_Power_Query_Practice/01_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\01_MS_Excel\02_Power_Query_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6557B27-15A3-4979-B431-38177EDBC9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DD97D7-3526-4523-94A1-26152851460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6C4FE441-0A25-4E71-BCBD-8645138B7BE1}"/>
   </bookViews>
@@ -2165,7 +2165,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
